--- a/微信资源/缺少的接口.xlsx
+++ b/微信资源/缺少的接口.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senparc-070801\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub.Repository\ThirdParty - 第三方\Senparc - 盛派\WeiXinMPSDK\微信资源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2DAEFF6-A95C-4909-AE23-08236B0F2BBC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685" xr2:uid="{40AF2A03-B0FD-4910-9BB4-D192A073C477}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="206">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -619,13 +618,49 @@
   </si>
   <si>
     <t>更新电子票据状态</t>
+  </si>
+  <si>
+    <t>小微商户图片上传API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.mch.weixin.qq.com/secapi/mch/uploadmedia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pay.weixin.qq.com/wiki/doc/api/xiaowei.php?chapter=19_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.mch.weixin.qq.com/applyment/micro/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pay.weixin.qq.com/wiki/doc/api/xiaowei.php?chapter=19_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小微商户申请入驻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小微商户查询申请状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pay.weixin.qq.com/wiki/doc/api/xiaowei.php?chapter=19_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.mch.weixin.qq.com/applyment/micro/getstate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,6 +695,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -678,12 +722,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,9 +743,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1009,21 +1060,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FF6965-C683-4DE6-9AF2-5070EFE7715C}">
-  <dimension ref="A1:C93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="70.375" customWidth="1"/>
     <col min="3" max="3" width="97.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +1096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1056,7 +1107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1067,7 +1118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1078,7 +1129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1089,7 +1140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1100,7 +1151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1111,7 +1162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1133,7 +1184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1144,7 +1195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1155,7 +1206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1166,7 +1217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1177,7 +1228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1188,7 +1239,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1199,7 +1250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1210,7 +1261,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1221,7 +1272,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1232,7 +1283,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1243,7 +1294,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1254,7 +1305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1265,7 +1316,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1276,7 +1327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1287,7 +1338,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1298,7 +1349,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1309,7 +1360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1320,7 +1371,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="14.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1331,7 +1382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1342,7 +1393,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1353,7 +1404,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1364,7 +1415,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1375,7 +1426,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -1386,7 +1437,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1397,7 +1448,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="16.5">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -1408,7 +1459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -1419,7 +1470,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -1430,7 +1481,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -1441,7 +1492,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -1452,7 +1503,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -1463,7 +1514,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -1474,7 +1525,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -1485,7 +1536,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -1496,7 +1547,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -1507,7 +1558,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -1518,7 +1569,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -1529,7 +1580,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -1540,7 +1591,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -1551,7 +1602,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -1562,7 +1613,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -1573,7 +1624,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -1584,7 +1635,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="14.25">
       <c r="A52" s="2" t="s">
         <v>117</v>
       </c>
@@ -1595,7 +1646,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="14.25">
       <c r="A53" s="2" t="s">
         <v>118</v>
       </c>
@@ -1606,7 +1657,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -1617,7 +1668,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>123</v>
       </c>
@@ -1628,7 +1679,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -1639,7 +1690,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -1650,7 +1701,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>130</v>
       </c>
@@ -1661,7 +1712,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -1672,7 +1723,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -1683,7 +1734,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -1694,7 +1745,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -1705,7 +1756,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>140</v>
       </c>
@@ -1716,7 +1767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -1727,7 +1778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -1738,7 +1789,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -1749,7 +1800,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -1760,7 +1811,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -1771,7 +1822,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -1782,7 +1833,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -1793,7 +1844,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -1804,7 +1855,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -1815,7 +1866,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -1826,7 +1877,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>160</v>
       </c>
@@ -1837,7 +1888,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>162</v>
       </c>
@@ -1848,7 +1899,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>164</v>
       </c>
@@ -1859,7 +1910,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -1870,7 +1921,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -1881,7 +1932,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>171</v>
       </c>
@@ -1892,7 +1943,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -1903,7 +1954,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>175</v>
       </c>
@@ -1914,7 +1965,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>178</v>
       </c>
@@ -1925,7 +1976,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -1936,7 +1987,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>182</v>
       </c>
@@ -1947,7 +1998,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -1958,7 +2009,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -1969,7 +2020,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>187</v>
       </c>
@@ -1980,7 +2031,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -1991,7 +2042,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>189</v>
       </c>
@@ -2002,7 +2053,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>191</v>
       </c>
@@ -2013,7 +2064,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>192</v>
       </c>
@@ -2024,7 +2075,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>194</v>
       </c>
@@ -2035,7 +2086,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>196</v>
       </c>
@@ -2046,9 +2097,50 @@
         <v>165</v>
       </c>
     </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>197</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C94" r:id="rId1"/>
+    <hyperlink ref="B94" r:id="rId2"/>
+    <hyperlink ref="C95" r:id="rId3"/>
+    <hyperlink ref="B95" r:id="rId4"/>
+    <hyperlink ref="B96" r:id="rId5"/>
+    <hyperlink ref="C96" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/微信资源/缺少的接口.xlsx
+++ b/微信资源/缺少的接口.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senparc-070801\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub.Repository\ThirdParty - 第三方\Senparc - 盛派\WeiXinMPSDK\微信资源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2DAEFF6-A95C-4909-AE23-08236B0F2BBC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685" xr2:uid="{40AF2A03-B0FD-4910-9BB4-D192A073C477}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="206">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -619,13 +618,40 @@
   </si>
   <si>
     <t>更新电子票据状态</t>
+  </si>
+  <si>
+    <t>小微商户图片上传API</t>
+  </si>
+  <si>
+    <t>https://pay.weixin.qq.com/wiki/doc/api/xiaowei.php?chapter=19_9</t>
+  </si>
+  <si>
+    <t>https://api.mch.weixin.qq.com/secapi/mch/uploadmedia</t>
+  </si>
+  <si>
+    <t>小微商户申请入驻</t>
+  </si>
+  <si>
+    <t>https://pay.weixin.qq.com/wiki/doc/api/xiaowei.php?chapter=19_2</t>
+  </si>
+  <si>
+    <t>https://api.mch.weixin.qq.com/applyment/micro/submit</t>
+  </si>
+  <si>
+    <t>小微商户查询申请状态</t>
+  </si>
+  <si>
+    <t>https://pay.weixin.qq.com/wiki/doc/api/xiaowei.php?chapter=19_3</t>
+  </si>
+  <si>
+    <t>https://api.mch.weixin.qq.com/applyment/micro/getstate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,21 +1035,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FF6965-C683-4DE6-9AF2-5070EFE7715C}">
-  <dimension ref="A1:C93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="70.375" customWidth="1"/>
     <col min="3" max="3" width="97.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1056,7 +1082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1067,7 +1093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1078,7 +1104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1089,7 +1115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1100,7 +1126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1111,7 +1137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1133,7 +1159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1144,7 +1170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1155,7 +1181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1166,7 +1192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1177,7 +1203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1188,7 +1214,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1199,7 +1225,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1210,7 +1236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1221,7 +1247,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1232,7 +1258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1243,7 +1269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1254,7 +1280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1265,7 +1291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1276,7 +1302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1287,7 +1313,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1298,7 +1324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1309,7 +1335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1320,7 +1346,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="14.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1331,7 +1357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1342,7 +1368,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1353,7 +1379,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1364,7 +1390,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1375,7 +1401,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -1386,7 +1412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1397,7 +1423,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="16.5">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -1408,7 +1434,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -1419,7 +1445,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -1430,7 +1456,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -1441,7 +1467,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -1452,7 +1478,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -1463,7 +1489,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -1474,7 +1500,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -1485,7 +1511,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -1496,7 +1522,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -1507,7 +1533,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -1518,7 +1544,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -1529,7 +1555,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -1540,7 +1566,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -1551,7 +1577,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -1562,7 +1588,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -1573,7 +1599,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -1584,7 +1610,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="14.25">
       <c r="A52" s="2" t="s">
         <v>117</v>
       </c>
@@ -1595,7 +1621,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="14.25">
       <c r="A53" s="2" t="s">
         <v>118</v>
       </c>
@@ -1606,7 +1632,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -1617,7 +1643,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>123</v>
       </c>
@@ -1628,7 +1654,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -1639,7 +1665,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -1650,7 +1676,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>130</v>
       </c>
@@ -1661,7 +1687,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -1672,7 +1698,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -1683,7 +1709,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -1694,7 +1720,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -1705,7 +1731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>140</v>
       </c>
@@ -1716,7 +1742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -1727,7 +1753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -1738,7 +1764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -1749,7 +1775,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -1760,7 +1786,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -1771,7 +1797,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -1782,7 +1808,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -1793,7 +1819,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -1804,7 +1830,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -1815,7 +1841,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -1826,7 +1852,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>160</v>
       </c>
@@ -1837,7 +1863,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>162</v>
       </c>
@@ -1848,7 +1874,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>164</v>
       </c>
@@ -1859,7 +1885,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -1870,7 +1896,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -1881,7 +1907,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>171</v>
       </c>
@@ -1892,7 +1918,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -1903,7 +1929,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>175</v>
       </c>
@@ -1914,7 +1940,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>178</v>
       </c>
@@ -1925,7 +1951,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -1936,7 +1962,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>182</v>
       </c>
@@ -1947,7 +1973,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -1958,7 +1984,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -1969,7 +1995,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>187</v>
       </c>
@@ -1980,7 +2006,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -1991,7 +2017,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>189</v>
       </c>
@@ -2002,7 +2028,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>191</v>
       </c>
@@ -2013,7 +2039,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>192</v>
       </c>
@@ -2024,7 +2050,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>194</v>
       </c>
@@ -2035,7 +2061,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>196</v>
       </c>
@@ -2044,6 +2070,39 @@
       </c>
       <c r="C93" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>197</v>
+      </c>
+      <c r="B94" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/微信资源/缺少的接口.xlsx
+++ b/微信资源/缺少的接口.xlsx
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/微信资源/缺少的接口.xlsx
+++ b/微信资源/缺少的接口.xlsx
@@ -620,31 +620,34 @@
     <t>更新电子票据状态</t>
   </si>
   <si>
-    <t>小微商户图片上传API</t>
-  </si>
-  <si>
     <t>https://pay.weixin.qq.com/wiki/doc/api/xiaowei.php?chapter=19_9</t>
   </si>
   <si>
     <t>https://api.mch.weixin.qq.com/secapi/mch/uploadmedia</t>
   </si>
   <si>
-    <t>小微商户申请入驻</t>
-  </si>
-  <si>
     <t>https://pay.weixin.qq.com/wiki/doc/api/xiaowei.php?chapter=19_2</t>
   </si>
   <si>
     <t>https://api.mch.weixin.qq.com/applyment/micro/submit</t>
   </si>
   <si>
-    <t>小微商户查询申请状态</t>
-  </si>
-  <si>
     <t>https://pay.weixin.qq.com/wiki/doc/api/xiaowei.php?chapter=19_3</t>
   </si>
   <si>
     <t>https://api.mch.weixin.qq.com/applyment/micro/getstate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小微商户查询申请状态 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小微商户申请入驻 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小微商户图片上传API </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1039,7 +1042,7 @@
   <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2074,24 +2077,24 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" t="s">
         <v>197</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>198</v>
-      </c>
-      <c r="C94" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" t="s">
         <v>200</v>
-      </c>
-      <c r="B95" t="s">
-        <v>201</v>
-      </c>
-      <c r="C95" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2099,10 +2102,10 @@
         <v>203</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C96" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/微信资源/缺少的接口.xlsx
+++ b/微信资源/缺少的接口.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub.Repository\ThirdParty - 第三方\Senparc - 盛派\WeiXinMPSDK\微信资源\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Senparc项目\WeixinMPSDK.netcore\微信资源\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6215A499-E520-4417-B7BF-7324C55A50FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685"/>
+    <workbookView xWindow="-120" yWindow="1095" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="210">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,13 +649,26 @@
   <si>
     <t xml:space="preserve">小微商户图片上传API </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contributor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>554393109 </t>
+  </si>
+  <si>
+    <t>554393110 </t>
+  </si>
+  <si>
+    <t>554393111 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +703,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -707,12 +730,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,9 +751,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1038,21 +1068,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="70.375" customWidth="1"/>
     <col min="3" max="3" width="97.875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1062,8 +1093,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1096,7 +1130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1118,7 +1152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1129,7 +1163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1140,7 +1174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1151,7 +1185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1162,7 +1196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1173,7 +1207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1184,7 +1218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1195,7 +1229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1206,7 +1240,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1217,7 +1251,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1228,7 +1262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1239,7 +1273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1250,7 +1284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1261,7 +1295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1272,7 +1306,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1283,7 +1317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1294,7 +1328,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1305,7 +1339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1316,7 +1350,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1327,7 +1361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1338,7 +1372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1349,7 +1383,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1360,7 +1394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1371,7 +1405,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1382,7 +1416,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1393,7 +1427,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1404,7 +1438,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -1415,7 +1449,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1426,7 +1460,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5">
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -1437,7 +1471,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -1448,7 +1482,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -1459,7 +1493,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -1470,7 +1504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -1481,7 +1515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -1492,7 +1526,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -1503,7 +1537,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -1514,7 +1548,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -1525,7 +1559,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -1536,7 +1570,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -1547,7 +1581,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -1558,7 +1592,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -1569,7 +1603,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -1580,7 +1614,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -1591,7 +1625,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -1602,7 +1636,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -1613,7 +1647,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>117</v>
       </c>
@@ -1624,7 +1658,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>118</v>
       </c>
@@ -1635,7 +1669,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -1646,7 +1680,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>123</v>
       </c>
@@ -1657,7 +1691,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -1668,7 +1702,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -1679,7 +1713,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>130</v>
       </c>
@@ -1690,7 +1724,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -1701,7 +1735,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -1712,7 +1746,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -1723,7 +1757,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -1734,7 +1768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>140</v>
       </c>
@@ -1745,7 +1779,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -1756,7 +1790,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -1767,7 +1801,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -1778,7 +1812,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -1789,7 +1823,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -1800,7 +1834,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -1811,7 +1845,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -1822,7 +1856,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -1833,7 +1867,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -1844,7 +1878,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -1855,7 +1889,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>160</v>
       </c>
@@ -1866,7 +1900,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>162</v>
       </c>
@@ -1877,7 +1911,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>164</v>
       </c>
@@ -1888,7 +1922,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -1899,7 +1933,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -1910,7 +1944,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>171</v>
       </c>
@@ -1921,7 +1955,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -1932,7 +1966,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>175</v>
       </c>
@@ -1943,7 +1977,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>178</v>
       </c>
@@ -1954,7 +1988,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -1965,7 +1999,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>182</v>
       </c>
@@ -1976,7 +2010,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -1987,7 +2021,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -1998,7 +2032,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>187</v>
       </c>
@@ -2009,7 +2043,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -2020,7 +2054,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>189</v>
       </c>
@@ -2031,7 +2065,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>191</v>
       </c>
@@ -2042,7 +2076,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>192</v>
       </c>
@@ -2053,7 +2087,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>194</v>
       </c>
@@ -2064,7 +2098,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>196</v>
       </c>
@@ -2075,7 +2109,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>205</v>
       </c>
@@ -2085,8 +2119,11 @@
       <c r="C94" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>204</v>
       </c>
@@ -2096,8 +2133,11 @@
       <c r="C95" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>203</v>
       </c>
@@ -2107,10 +2147,17 @@
       <c r="C96" t="s">
         <v>202</v>
       </c>
+      <c r="D96" s="4" t="s">
+        <v>209</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D95:D96" r:id="rId1" display="https://github.com/554393109" xr:uid="{9B89873F-0218-4C55-8AC7-93809E5D3743}"/>
+    <hyperlink ref="D94" r:id="rId2" display="https://github.com/554393109" xr:uid="{D504E99B-9EF7-41BF-9A23-339BC0D8E5E3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/微信资源/缺少的接口.xlsx
+++ b/微信资源/缺少的接口.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Senparc项目\WeixinMPSDK.netcore\微信资源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6215A499-E520-4417-B7BF-7324C55A50FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B46537-81F4-4A82-96CA-694B24BA2463}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="1095" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="212">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,15 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取自定义菜单配置接口</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/wiki?t=resource/res_main&amp;id=mp1434698695</t>
-  </si>
-  <si>
-    <t>https://api.weixin.qq.com/cgi-bin/get_current_selfmenu_info?access_token=ACCESS_TOKEN</t>
-  </si>
-  <si>
     <t>客服输入状态</t>
   </si>
   <si>
@@ -662,6 +653,26 @@
   </si>
   <si>
     <t>554393111 </t>
+  </si>
+  <si>
+    <t>https://api.weixin.qq.com/cgi-bin/get_current_selfmenu_info?access_token=ACCESS_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取自定义菜单配置接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/wiki?t=resource/res_main&amp;id=mp1434698695</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -738,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +764,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1069,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1097,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1094,1061 +1108,1067 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="E1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
         <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
         <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
         <v>85</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
         <v>92</v>
-      </c>
-      <c r="C41" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
         <v>121</v>
-      </c>
-      <c r="C55" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="s">
         <v>154</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B78" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" t="s">
         <v>167</v>
-      </c>
-      <c r="C78" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" t="s">
         <v>176</v>
-      </c>
-      <c r="C82" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C85" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C86" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C91" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C92" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B94" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C94" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B95" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2156,8 +2176,10 @@
   <hyperlinks>
     <hyperlink ref="D95:D96" r:id="rId1" display="https://github.com/554393109" xr:uid="{9B89873F-0218-4C55-8AC7-93809E5D3743}"/>
     <hyperlink ref="D94" r:id="rId2" display="https://github.com/554393109" xr:uid="{D504E99B-9EF7-41BF-9A23-339BC0D8E5E3}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{B1CD4055-BFA0-4A54-B791-A82D7F103E9D}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{1AE75C7F-411D-434C-AE62-70BF50E2D03B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/微信资源/缺少的接口.xlsx
+++ b/微信资源/缺少的接口.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Senparc项目\WeixinMPSDK.netcore\微信资源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B46537-81F4-4A82-96CA-694B24BA2463}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D0D288-B1CC-4A5C-9AB0-BFD3EE79085A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="1095" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:D96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
